--- a/CloudWork/TestData/CloudWork_TestCase.xlsx
+++ b/CloudWork/TestData/CloudWork_TestCase.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27431" windowHeight="12995" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BGM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -48,8 +48,37 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,8 +91,77 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -78,22 +176,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -101,28 +184,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -134,63 +195,8 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
@@ -205,19 +211,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,163 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +426,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -424,21 +460,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -462,8 +483,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,30 +523,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -519,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -531,16 +543,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
@@ -549,119 +561,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,18 +683,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1098,24 +1119,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.2222222222222" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.8888888888889" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.4444444444444" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.2222222222222" customWidth="1" style="3" min="4" max="4"/>
-    <col width="32.6666666666667" customWidth="1" style="3" min="5" max="5"/>
-    <col width="32" customWidth="1" style="3" min="6" max="6"/>
-    <col width="37.3333333333333" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.444444444444439" customWidth="1" style="3" min="8" max="8"/>
-    <col width="41.2222222222222" customWidth="1" style="3" min="9" max="9"/>
-    <col width="16.2222222222222" customWidth="1" style="3" min="10" max="10"/>
+    <col width="6.11111111111111" customWidth="1" style="5" min="1" max="1"/>
+    <col width="10.8888888888889" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.4444444444444" customWidth="1" style="5" min="3" max="3"/>
+    <col width="11.2222222222222" customWidth="1" style="5" min="4" max="4"/>
+    <col width="32.6666666666667" customWidth="1" style="5" min="5" max="5"/>
+    <col width="32" customWidth="1" style="5" min="6" max="6"/>
+    <col width="71.2222222222222" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.444444444444439" customWidth="1" style="5" min="8" max="8"/>
+    <col width="41.2222222222222" customWidth="1" style="5" min="9" max="9"/>
+    <col width="16.2222222222222" customWidth="1" style="5" min="10" max="10"/>
+    <col width="27.6666666666667" customWidth="1" style="5" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.15" customFormat="1" customHeight="1" s="1">
@@ -1166,7 +1190,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mention</t>
+          <t>Form</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mention</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1223,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1204,15 +1233,20 @@
           <t>{'name': "aipauto_task22222222222222222222222222222222222222222222222",'taskClassId':"", 'templateId': ""}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J2" s="4" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>CaseNum must start from number 1(int)</t>
+        </is>
+      </c>
       <c r="L2" s="0" t="n"/>
     </row>
     <row r="3" ht="47.55" customFormat="1" customHeight="1" s="2">
@@ -1239,7 +1273,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1249,17 +1283,17 @@
           <t>{'name': "aipauto_task",'taskClassId':"", 'templateId': ""}</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123173377933313, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="n"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123529505800193, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n"/>
       <c r="L3" s="0" t="n"/>
     </row>
     <row r="4" ht="47.55" customFormat="1" customHeight="1" s="2">
@@ -1286,7 +1320,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1296,19 +1330,19 @@
           <t>{'name': "aipauto_task",'taskClassId':'@#￥%……&amp;*', 'templateId': ""}</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J4" s="4" t="n"/>
+      <c r="J4" s="3" t="n"/>
       <c r="L4" s="0" t="n"/>
     </row>
     <row r="5" ht="46.8" customFormat="1" customHeight="1" s="2">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1331,7 +1365,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1341,17 +1375,17 @@
           <t>{'name':"aipauto_task", 'taskClassId':"", 'templateId': ""}</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123173380030464, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123529505800194, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n"/>
       <c r="L5" s="0" t="n"/>
     </row>
     <row r="6" ht="63.15" customFormat="1" customHeight="1" s="2">
@@ -1378,7 +1412,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/updateForDraft</t>
         </is>
@@ -1398,21 +1432,17 @@
                         }</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>taskId必须为存在的taskId</t>
-        </is>
-      </c>
+      <c r="J6" s="3" t="n"/>
     </row>
     <row r="7" ht="78.75" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="2" t="n">
@@ -1420,7 +1450,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Project_01</t>
+          <t>Project_1</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1438,7 +1468,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1448,15 +1478,15 @@
           <t>{"classId": 121839463432192,"name": "aipauto_project222222222222222222222222222222222222222222222","templateId": ""}</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J7" s="4" t="n"/>
+      <c r="J7" s="3" t="n"/>
     </row>
     <row r="8" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A8" s="2" t="n">
@@ -1464,7 +1494,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Project_02</t>
+          <t>Project_2</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -1482,7 +1512,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1492,15 +1522,15 @@
           <t>{"classId":"qwe","name": "aipauto_project","templateId": ""}</t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J8" s="4" t="n"/>
+      <c r="J8" s="3" t="n"/>
     </row>
     <row r="9" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A9" s="2" t="n">
@@ -1508,7 +1538,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Project_03</t>
+          <t>Project_3</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -1526,7 +1556,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1536,17 +1566,17 @@
           <t>{"classId": "","name": "aipauto_project","templateId": ""}</t>
         </is>
       </c>
-      <c r="H9" s="6" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123173380030465, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J9" s="4" t="n"/>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123532521504769, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="n"/>
     </row>
     <row r="10" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A10" s="2" t="n">
@@ -1554,7 +1584,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Project_04</t>
+          <t>Project_4</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -1572,7 +1602,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1582,24 +1612,24 @@
           <t>{"classId": "@#￥%……&amp;*","name": "aipauto_project","templateId": ""}</t>
         </is>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J10" s="4" t="n"/>
-      <c r="L10" s="7" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="L10" s="9" t="n"/>
     </row>
     <row r="11" ht="43.2" customFormat="1" customHeight="1" s="2">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Project_05</t>
+          <t>Project_5</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1617,7 +1647,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1627,17 +1657,17 @@
           <t>{"classId":121839463432192,"name": "aipauto_project","templateId": ""}</t>
         </is>
       </c>
-      <c r="H11" s="6" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123173382127616, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J11" s="4" t="n"/>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123532521504770, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="n"/>
     </row>
     <row r="12" ht="62.4" customFormat="1" customHeight="1" s="2">
       <c r="A12" s="2" t="n">
@@ -1645,7 +1675,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Project_06</t>
+          <t>Project_6</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1663,30 +1693,26 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>{'projectUsers': [{'userId': 121116491251712, 'memberRoleIds': [122986741891081]}],'projectId': 122986741891074}</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="n">
+          <t>{'projectUsers': [{'userId': 121116491251712, 'memberRoleIds': [122986741891081]}],'projectId': 0}</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I12" s="4" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '姓名为LAU的用户已为该项目成员', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>projectId必须为存在的projectId</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="L12" s="9" t="n"/>
     </row>
     <row r="13" ht="62.4" customFormat="1" customHeight="1" s="2">
       <c r="A13" s="2" t="n">
@@ -1694,7 +1720,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Project_07</t>
+          <t>Project_7</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1712,30 +1738,30 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>{'projectUsers': [{'userId': 121151861817344, 'memberRoleIds': [122986741891081]}],         'projectId':122986741891074}</t>
-        </is>
-      </c>
-      <c r="H13" s="6" t="inlineStr">
+          <t>{'projectUsers': [{'userId': 121151861817344, 'memberRoleIds': [122986741891081]}],         'projectId':0}</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>projectId必须为存在的projectId
-userId必须为sam</t>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>userId为登录的用户id</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1771,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Project_08</t>
+          <t>Project_8</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1763,7 +1789,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/updateForDraft</t>
         </is>
@@ -1777,27 +1803,22 @@
                 'name': "aipauto_project(rename)",
                 'priority': "HIGH",
                 'projectClassId': 121839463432192,
-                'projectId': 122980993597440,
+                'projectId': 0,
                 'startTime': "2020-10-27"
               }</t>
         </is>
       </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>projectId必须为存在的projectId
-projectClassId为项目分类ID</t>
-        </is>
-      </c>
+      <c r="J14" s="3" t="n"/>
     </row>
     <row r="15" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
       <c r="A15" s="2" t="n">
@@ -1805,7 +1826,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Project_09</t>
+          <t>Project_9</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1823,31 +1844,34 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete?userId=121151861817344&amp;projectId=122986741891074</t>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H15" s="6" t="inlineStr">
+          <t>{'userId':121151861817344,'projectId':122986741891074}</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>projectId必须为存在的projectId
-userId必须为存在的
-并且id内要有sam</t>
+          <t>join</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>userId为登录的用户id</t>
         </is>
       </c>
     </row>
@@ -1875,31 +1899,40 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/projectCustomState/add?projectId=122986741891074&amp;stateName=auto&amp;sort=2&amp;projectState=SUBMIT</t>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/projectCustomState/add</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H16" s="6" t="inlineStr">
+          <t>{'projectId':122986741891074,'stateName':'auto','sort':2,'projectState':'SUBMIT'}</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I16" s="7" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>projectId必须为存在的projectId</t>
-        </is>
-      </c>
+          <t>join</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15.6" customHeight="1" s="5">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="8" t="n"/>
+      <c r="G17" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1913,16 +1946,191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <cols>
+    <col width="13.2222222222222" customWidth="1" style="5" min="1" max="1"/>
+    <col width="10.8888888888889" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.4444444444444" customWidth="1" style="5" min="3" max="3"/>
+    <col width="11.2222222222222" customWidth="1" style="5" min="4" max="4"/>
+    <col width="11.4444444444444" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.1111111111111" customWidth="1" style="5" min="6" max="6"/>
+    <col width="11.6666666666667" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.444444444444439" customWidth="1" style="5" min="8" max="8"/>
+    <col width="14.6666666666667" customWidth="1" style="5" min="9" max="9"/>
+    <col width="7.77777777777778" customWidth="1" style="5" min="10" max="10"/>
+    <col width="12" customWidth="1" style="5" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.15" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CaseNum</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CaseName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Headers</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Expect</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Form</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mention</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Project_01</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>移除sam项目成员</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>{'userId':121151861817344,'projectId':122986741891074}</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>join</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="124.8" customFormat="1" customHeight="1" s="2">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Project_02</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>添加项目状态</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/projectCustomState/add</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>{'projectId':122986741891074,'stateName':'auto','sort':2,'projectState':'SUBMIT'}</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>join</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1938,9 +2146,8 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CloudWork/TestData/CloudWork_TestCase.xlsx
+++ b/CloudWork/TestData/CloudWork_TestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27648" windowHeight="13560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" state="visible" r:id="rId1"/>
@@ -46,18 +46,17 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -69,44 +68,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -129,8 +98,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -161,28 +167,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -191,12 +175,28 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -211,7 +211,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,181 +373,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +428,47 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +497,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -464,65 +529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -531,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -543,137 +549,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,27 +689,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1119,27 +1131,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="6.11111111111111" customWidth="1" style="5" min="1" max="1"/>
-    <col width="10.8888888888889" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.4444444444444" customWidth="1" style="5" min="3" max="3"/>
-    <col width="11.2222222222222" customWidth="1" style="5" min="4" max="4"/>
-    <col width="32.6666666666667" customWidth="1" style="5" min="5" max="5"/>
-    <col width="32" customWidth="1" style="5" min="6" max="6"/>
-    <col width="71.2222222222222" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.444444444444439" customWidth="1" style="5" min="8" max="8"/>
-    <col width="41.2222222222222" customWidth="1" style="5" min="9" max="9"/>
-    <col width="16.2222222222222" customWidth="1" style="5" min="10" max="10"/>
-    <col width="27.6666666666667" customWidth="1" style="5" min="11" max="11"/>
+    <col width="6.11111111111111" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.8888888888889" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.4444444444444" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.2222222222222" customWidth="1" style="3" min="4" max="4"/>
+    <col width="32.6666666666667" customWidth="1" style="3" min="5" max="5"/>
+    <col width="32" customWidth="1" style="3" min="6" max="6"/>
+    <col width="71.2222222222222" customWidth="1" style="3" min="7" max="7"/>
+    <col width="9.444444444444439" customWidth="1" style="3" min="8" max="8"/>
+    <col width="41.2222222222222" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.1111111111111" customWidth="1" style="3" min="10" max="10"/>
+    <col width="16.2222222222222" customWidth="1" style="3" min="11" max="11"/>
+    <col width="27.6666666666667" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.15" customFormat="1" customHeight="1" s="1">
@@ -1190,10 +1203,15 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Form</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Mention</t>
         </is>
@@ -1223,7 +1241,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1236,18 +1254,23 @@
       <c r="H2" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>CaseNum must start from number 1(int)</t>
         </is>
       </c>
-      <c r="L2" s="0" t="n"/>
+      <c r="M2" s="0" t="n"/>
     </row>
     <row r="3" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A3" s="2" t="n">
@@ -1260,7 +1283,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>不带任务分类id新建任务</t>
+          <t>错误任务分类id新建任务</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -1273,28 +1296,31 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>{'name': "aipauto_task",'taskClassId':"", 'templateId': ""}</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123529505800193, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="L3" s="0" t="n"/>
+          <t>{'name': "aipauto_task",'taskClassId':'@#￥%……&amp;*', 'templateId': ""}</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>9999</v>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="n"/>
+      <c r="M3" s="0" t="n"/>
     </row>
     <row r="4" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A4" s="2" t="n">
@@ -1307,7 +1333,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>错误任务分类id新建任务</t>
+          <t>不带任务分类id新建任务</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -1320,29 +1346,36 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>{'name': "aipauto_task",'taskClassId':'@#￥%……&amp;*', 'templateId': ""}</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>9999</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="n"/>
-      <c r="L4" s="0" t="n"/>
+          <t>{'name': "aipauto_task",'taskClassId':"", 'templateId': ""}</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123904667418624, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="n"/>
+      <c r="M4" s="0" t="n"/>
     </row>
     <row r="5" ht="46.8" customFormat="1" customHeight="1" s="2">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1352,7 +1385,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>正常新建任务</t>
+          <t>缺失任务开始时间发布任务</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1360,35 +1393,48 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>{'name':"aipauto_task", 'taskClassId':"", 'templateId': ""}</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123529505800194, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="L5" s="0" t="n"/>
-    </row>
-    <row r="6" ht="63.15" customFormat="1" customHeight="1" s="2">
+          <t>{"content": "apiautotest",
+"endTime": "2021-10-27",
+"headUserId": 121116491251712,
+"name": "aipauto_task",
+"priority": "LOW",
+"startTime":"" ,
+"taskClassId": 0,
+"taskId": 123705159057409,
+"taskUserIds": [121116491251712]}</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '9999', 'message': '参数校验失败,开始时间不能为空', 'value': None, 'success': False}</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="n"/>
+      <c r="M5" s="0" t="n"/>
+    </row>
+    <row r="6" ht="46.8" customFormat="1" customHeight="1" s="2">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -1399,242 +1445,300 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>缺失任务截止时间发布任务</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>{"content": "apiautotest",
+"endTime": "",
+"headUserId": 121116491251712,
+"name": "aipauto_task",
+"priority": "LOW",
+"startTime":"2021-10-27" ,
+"taskClassId": 0,
+"taskId": 123705159057409,
+"taskUserIds": [121116491251712]}</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '9999', 'message': '参数校验失败,截至时间不能为空', 'value': None, 'success': False}</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="n"/>
+      <c r="M6" s="0" t="n"/>
+    </row>
+    <row r="7" ht="46.8" customFormat="1" customHeight="1" s="2">
+      <c r="A7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>task_6</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>正常新建任务</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>{'name':"aipauto_task", 'taskClassId':"", 'templateId': ""}</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123904669515776, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="n"/>
+      <c r="M7" s="0" t="n"/>
+    </row>
+    <row r="8" ht="63.15" customFormat="1" customHeight="1" s="2">
+      <c r="A8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>task_7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>暂存任务</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/updateForDraft</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>{'content': "apiauto",
+'endTime': "2021-10-27",
+'headUserId': 121116491251712,
+'name': "aipauto_task(new)",
+'priority': "HIGH",
+'startTime': "2021-10-27",
+'taskClassId': "",
+'taskId': 0,
+'taskUserIds': [121116491251712]}</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="n"/>
+    </row>
+    <row r="9" ht="46.8" customFormat="1" customHeight="1" s="2">
+      <c r="A9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>task_8</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>发布任务</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>{
-                        "content": "apiauto",
-                        "endTime": "2021-10-27",
-                        "headUserId": 121116491251712,
-                        "name": "aipauto_task(new)",
-                        "priority": "LOW",
-                        "startTime": "2021-10-27",
-                        "taskClassId": None,
-                        "taskId": 123107808378881,
-                        "taskUserIds": [121116491251712]
-                        }</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
+  "content": "apiautotest",
+  "endTime": "2021-10-27",
+  "headUserId": 121116491251712,
+  "name": "aipauto_task(new)",
+  "priority": "HIGH",
+  "startTime": "2021-10-27",
+  "taskClassId":"",
+  "taskId": 0,
+  "taskUserIds": [121116491251712]
+}</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J6" s="3" t="n"/>
-    </row>
-    <row r="7" ht="78.75" customFormat="1" customHeight="1" s="2">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Project_1</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>新增超长项目名称</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="n"/>
+      <c r="M9" s="0" t="n"/>
+    </row>
+    <row r="10" ht="46.8" customFormat="1" customHeight="1" s="2">
+      <c r="A10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>task_9</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>发布已发布任务任务</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>{"classId": 121839463432192,"name": "aipauto_project222222222222222222222222222222222222222222222","templateId": ""}</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>9999</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="47.55" customFormat="1" customHeight="1" s="2">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Project_2</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>项目分类id为英文字符串新建项目</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>{"classId":"qwe","name": "aipauto_project","templateId": ""}</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>9999</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="n"/>
-    </row>
-    <row r="9" ht="47.55" customFormat="1" customHeight="1" s="2">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Project_3</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>项目分类id为空字符串新建项目</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>{"classId": "","name": "aipauto_project","templateId": ""}</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123532521504769, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="n"/>
-    </row>
-    <row r="10" ht="47.55" customFormat="1" customHeight="1" s="2">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Project_4</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>错误项目分类id新建项目</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>{"classId": "@#￥%……&amp;*","name": "aipauto_project","templateId": ""}</t>
+          <t>{
+  "content": "apiautotest",
+  "endTime": "2021-10-27",
+  "headUserId": 121116491251712,
+  "name": "aipauto_task(new)",
+  "priority": "HIGH",
+  "startTime": "2021-10-27",
+  "taskClassId":"",
+  "taskId": 0,
+  "taskUserIds": [121116491251712]
+}</t>
         </is>
       </c>
       <c r="H10" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="n"/>
-      <c r="L10" s="9" t="n"/>
-    </row>
-    <row r="11" ht="43.2" customFormat="1" customHeight="1" s="2">
-      <c r="A11" s="7" t="n">
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '9999', 'message': '只有草稿任务才能发布', 'value': None, 'success': False}</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="n"/>
+      <c r="M10" s="0" t="n"/>
+    </row>
+    <row r="11" ht="78.75" customFormat="1" customHeight="1" s="2">
+      <c r="A11" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Project_5</t>
+          <t>Project_1</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>正常新建项目</t>
+          <t>新增超长项目名称</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1647,40 +1751,43 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>{"classId":121839463432192,"name": "aipauto_project","templateId": ""}</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123532521504770, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="n"/>
-    </row>
-    <row r="12" ht="62.4" customFormat="1" customHeight="1" s="2">
-      <c r="A12" s="2" t="n">
+          <t>{"classId": 121839463432192,"name": "aipauto_project222222222222222222222222222222222222222222222","templateId": ""}</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>9999</v>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="n"/>
+    </row>
+    <row r="12" ht="47.55" customFormat="1" customHeight="1" s="2">
+      <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Project_6</t>
+          <t>Project_2</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>项目创建人添加自己为项目成员</t>
+          <t>项目分类id为英文字符串新建项目</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1693,108 +1800,319 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>{'projectUsers': [{'userId': 121116491251712, 'memberRoleIds': [122986741891081]}],'projectId': 0}</t>
+          <t>{"classId":"qwe","name": "aipauto_project","templateId": ""}</t>
         </is>
       </c>
       <c r="H12" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="n"/>
+    </row>
+    <row r="13" ht="47.55" customFormat="1" customHeight="1" s="2">
+      <c r="A13" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Project_3</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>项目分类id为空字符串新建项目</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>{"classId": "","name": "aipauto_project","templateId": ""}</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123904673710081, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="n"/>
+    </row>
+    <row r="14" ht="47.55" customFormat="1" customHeight="1" s="2">
+      <c r="A14" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Project_4</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>错误项目分类id新建项目</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>{"classId": "@#￥%……&amp;*","name": "aipauto_project","templateId": ""}</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>9999</v>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="n"/>
+      <c r="M14" s="12" t="n"/>
+    </row>
+    <row r="15" ht="43.2" customFormat="1" customHeight="1" s="2">
+      <c r="A15" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Project_5</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>正常新建项目</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>{"classId":121839463432192,"name": "aipauto_project","templateId": ""}</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123904675807232, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="62.4" customFormat="1" customHeight="1" s="2">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Project_6</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>项目创建人添加自己为项目成员</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>{'projectUsers': [{'userId': 121116491251712, 'memberRoleIds': [122986741891081]}],'projectId': 0}</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>9999</v>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '姓名为LAU的用户已为该项目成员', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J12" s="3" t="n"/>
-      <c r="L12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="62.4" customFormat="1" customHeight="1" s="2">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="n"/>
+      <c r="M16" s="12" t="n"/>
+    </row>
+    <row r="17" ht="62.4" customFormat="1" customHeight="1" s="2">
+      <c r="A17" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Project_7</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>添加sam为项目成员</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>{'projectUsers': [{'userId': 121151861817344, 'memberRoleIds': [122986741891081]}],         'projectId':0}</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="n"/>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>userId为登录的用户id</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="105" customFormat="1" customHeight="1" s="2">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+    <row r="18" ht="105" customFormat="1" customHeight="1" s="2">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Project_8</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>暂存项目</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/updateForDraft</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>{'announcement': "project content",
                 'endTime': "2020-11-27",
@@ -1808,131 +2126,262 @@
               }</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I18" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J14" s="3" t="n"/>
-    </row>
-    <row r="15" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
-      <c r="A15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Project_9</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>移除sam项目成员</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>{'userId':121151861817344,'projectId':122986741891074}</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>join</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>userId为登录的用户id</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="124.8" customFormat="1" customHeight="1" s="2">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+    <row r="20" ht="124.8" customFormat="1" customHeight="1" s="2">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Project_10</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>添加项目状态</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectCustomState/add</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>{'projectId':122986741891074,'stateName':'auto','sort':2,'projectState':'SUBMIT'}</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="I20" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>join</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15.6" customHeight="1" s="5">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="0" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="8" t="n"/>
-      <c r="G17" s="9" t="n"/>
+    <row r="21" ht="45" customHeight="1" s="3">
+      <c r="A21" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Project_11</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>项目内新建任务</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>{'name': "apiauto_taskinpro",
+'projectId': 0,
+'taskClassId': 121839559901184,
+'templateId': ""}</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I21" s="10" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123904682098688, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J21" s="10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K21" s="10" t="n"/>
+      <c r="L21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="15.6" customHeight="1" s="3">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="10" t="n"/>
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="10" t="n"/>
+      <c r="K22" s="10" t="n"/>
+      <c r="L22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="15.6" customHeight="1" s="3">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="10" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="10" t="n"/>
+      <c r="K23" s="10" t="n"/>
+      <c r="L23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="15.6" customHeight="1" s="3">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="10" t="n"/>
+      <c r="G24" s="10" t="n"/>
+      <c r="H24" s="10" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="10" t="n"/>
+      <c r="K24" s="10" t="n"/>
+      <c r="L24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="15.6" customHeight="1" s="3">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="10" t="n"/>
+      <c r="K25" s="10" t="n"/>
+      <c r="L25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="15.6" customHeight="1" s="3">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="10" t="n"/>
+      <c r="G26" s="10" t="n"/>
+      <c r="H26" s="10" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="10" t="n"/>
+      <c r="K26" s="10" t="n"/>
+      <c r="L26" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,17 +2403,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col width="13.2222222222222" customWidth="1" style="5" min="1" max="1"/>
-    <col width="10.8888888888889" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.4444444444444" customWidth="1" style="5" min="3" max="3"/>
-    <col width="11.2222222222222" customWidth="1" style="5" min="4" max="4"/>
-    <col width="11.4444444444444" customWidth="1" style="5" min="5" max="5"/>
-    <col width="13.1111111111111" customWidth="1" style="5" min="6" max="6"/>
-    <col width="11.6666666666667" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.444444444444439" customWidth="1" style="5" min="8" max="8"/>
-    <col width="14.6666666666667" customWidth="1" style="5" min="9" max="9"/>
-    <col width="7.77777777777778" customWidth="1" style="5" min="10" max="10"/>
-    <col width="12" customWidth="1" style="5" min="11" max="11"/>
+    <col width="13.2222222222222" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.8888888888889" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.4444444444444" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.2222222222222" customWidth="1" style="3" min="4" max="4"/>
+    <col width="11.4444444444444" customWidth="1" style="3" min="5" max="5"/>
+    <col width="13.1111111111111" customWidth="1" style="3" min="6" max="6"/>
+    <col width="11.6666666666667" customWidth="1" style="3" min="7" max="7"/>
+    <col width="9.444444444444439" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.6666666666667" customWidth="1" style="3" min="9" max="9"/>
+    <col width="7.77777777777778" customWidth="1" style="3" min="10" max="10"/>
+    <col width="12" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.15" customFormat="1" customHeight="1" s="1">
@@ -2048,7 +2497,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete</t>
         </is>
@@ -2058,12 +2507,12 @@
           <t>{'userId':121151861817344,'projectId':122986741891074}</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
@@ -2098,7 +2547,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectCustomState/add</t>
         </is>
@@ -2108,12 +2557,12 @@
           <t>{'projectId':122986741891074,'stateName':'auto','sort':2,'projectState':'SUBMIT'}</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>

--- a/CloudWork/TestData/CloudWork_TestCase.xlsx
+++ b/CloudWork/TestData/CloudWork_TestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27648" windowHeight="13560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="27640" windowHeight="13560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -29,6 +29,7 @@
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="14"/>
@@ -36,167 +37,33 @@
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <family val="2"/>
       <color rgb="FF333333"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -205,7 +72,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,194 +88,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -431,251 +112,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -718,56 +157,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1122,6 +513,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1134,28 +526,27 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col width="6.11111111111111" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.8888888888889" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.4444444444444" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.2222222222222" customWidth="1" style="3" min="4" max="4"/>
-    <col width="32.6666666666667" customWidth="1" style="3" min="5" max="5"/>
+    <col width="6.1640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.83203125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.5" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.1640625" customWidth="1" style="3" min="4" max="4"/>
+    <col width="32.6640625" customWidth="1" style="3" min="5" max="5"/>
     <col width="32" customWidth="1" style="3" min="6" max="6"/>
-    <col width="71.2222222222222" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.444444444444439" customWidth="1" style="3" min="8" max="8"/>
-    <col width="41.2222222222222" customWidth="1" style="3" min="9" max="9"/>
-    <col width="18.1111111111111" customWidth="1" style="3" min="10" max="10"/>
-    <col width="16.2222222222222" customWidth="1" style="3" min="11" max="11"/>
-    <col width="27.6666666666667" customWidth="1" style="3" min="12" max="12"/>
+    <col width="71.1640625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="9.5" customWidth="1" style="3" min="8" max="8"/>
+    <col width="41.1640625" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.1640625" customWidth="1" style="3" min="10" max="10"/>
+    <col width="16.1640625" customWidth="1" style="3" min="11" max="11"/>
+    <col width="27.6640625" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.15" customFormat="1" customHeight="1" s="1">
+    <row r="1" ht="21.25" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CaseNum</t>
@@ -1217,13 +608,13 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="63.15" customFormat="1" customHeight="1" s="2">
+    <row r="2" ht="63.25" customFormat="1" customHeight="1" s="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>task_1</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -1272,13 +663,13 @@
       </c>
       <c r="M2" s="0" t="n"/>
     </row>
-    <row r="3" ht="47.55" customFormat="1" customHeight="1" s="2">
+    <row r="3" ht="47.5" customFormat="1" customHeight="1" s="2">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>task_2</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -1322,13 +713,13 @@
       <c r="K3" s="4" t="n"/>
       <c r="M3" s="0" t="n"/>
     </row>
-    <row r="4" ht="47.55" customFormat="1" customHeight="1" s="2">
+    <row r="4" ht="47.5" customFormat="1" customHeight="1" s="2">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>task_3</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -1363,7 +754,7 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123904667418624, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123966715854848, 'success': True}</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -1374,13 +765,13 @@
       <c r="K4" s="4" t="n"/>
       <c r="M4" s="0" t="n"/>
     </row>
-    <row r="5" ht="46.8" customFormat="1" customHeight="1" s="2">
+    <row r="5" ht="46.75" customFormat="1" customHeight="1" s="2">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>task_4</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -1434,13 +825,13 @@
       <c r="K5" s="4" t="n"/>
       <c r="M5" s="0" t="n"/>
     </row>
-    <row r="6" ht="46.8" customFormat="1" customHeight="1" s="2">
+    <row r="6" ht="46.75" customFormat="1" customHeight="1" s="2">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>task_5</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -1494,13 +885,13 @@
       <c r="K6" s="4" t="n"/>
       <c r="M6" s="0" t="n"/>
     </row>
-    <row r="7" ht="46.8" customFormat="1" customHeight="1" s="2">
+    <row r="7" ht="46.75" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>task_6</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1535,7 +926,7 @@
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123904669515776, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123966715854849, 'success': True}</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -1546,13 +937,13 @@
       <c r="K7" s="4" t="n"/>
       <c r="M7" s="0" t="n"/>
     </row>
-    <row r="8" ht="63.15" customFormat="1" customHeight="1" s="2">
+    <row r="8" ht="63.25" customFormat="1" customHeight="1" s="2">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>task_7</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -1605,13 +996,13 @@
       </c>
       <c r="K8" s="4" t="n"/>
     </row>
-    <row r="9" ht="46.8" customFormat="1" customHeight="1" s="2">
+    <row r="9" ht="46.75" customFormat="1" customHeight="1" s="2">
       <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>task_8</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -1667,13 +1058,13 @@
       <c r="K9" s="4" t="n"/>
       <c r="M9" s="0" t="n"/>
     </row>
-    <row r="10" ht="46.8" customFormat="1" customHeight="1" s="2">
+    <row r="10" ht="46.75" customFormat="1" customHeight="1" s="2">
       <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>task_9</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -1733,7 +1124,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Project_1</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1776,13 +1167,13 @@
       </c>
       <c r="K11" s="4" t="n"/>
     </row>
-    <row r="12" ht="47.55" customFormat="1" customHeight="1" s="2">
+    <row r="12" ht="47.5" customFormat="1" customHeight="1" s="2">
       <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Project_2</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1825,13 +1216,13 @@
       </c>
       <c r="K12" s="4" t="n"/>
     </row>
-    <row r="13" ht="47.55" customFormat="1" customHeight="1" s="2">
+    <row r="13" ht="47.5" customFormat="1" customHeight="1" s="2">
       <c r="A13" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Project_3</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1866,7 +1257,7 @@
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123904673710081, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123966720049152, 'success': True}</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1876,13 +1267,13 @@
       </c>
       <c r="K13" s="4" t="n"/>
     </row>
-    <row r="14" ht="47.55" customFormat="1" customHeight="1" s="2">
+    <row r="14" ht="47.5" customFormat="1" customHeight="1" s="2">
       <c r="A14" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Project_4</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1926,13 +1317,13 @@
       <c r="K14" s="4" t="n"/>
       <c r="M14" s="12" t="n"/>
     </row>
-    <row r="15" ht="43.2" customFormat="1" customHeight="1" s="2">
+    <row r="15" ht="43.25" customFormat="1" customHeight="1" s="2">
       <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Project_5</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1967,7 +1358,7 @@
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123904675807232, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123966722146304, 'success': True}</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1977,13 +1368,13 @@
       </c>
       <c r="K15" s="4" t="n"/>
     </row>
-    <row r="16" ht="62.4" customFormat="1" customHeight="1" s="2">
+    <row r="16" ht="62.5" customFormat="1" customHeight="1" s="2">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Project_6</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -2027,13 +1418,13 @@
       <c r="K16" s="4" t="n"/>
       <c r="M16" s="12" t="n"/>
     </row>
-    <row r="17" ht="62.4" customFormat="1" customHeight="1" s="2">
+    <row r="17" ht="62.5" customFormat="1" customHeight="1" s="2">
       <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Project_7</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -2089,7 +1480,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Project_8</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -2143,13 +1534,13 @@
       </c>
       <c r="K18" s="4" t="n"/>
     </row>
-    <row r="19" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
+    <row r="19" ht="93.5" customFormat="1" customHeight="1" s="2">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Project_9</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -2203,13 +1594,13 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="124.8" customFormat="1" customHeight="1" s="2">
+    <row r="20" ht="124.75" customFormat="1" customHeight="1" s="2">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Project_10</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -2264,7 +1655,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Project_11</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -2302,7 +1693,7 @@
       </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123904682098688, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 123966724243456, 'success': True}</t>
         </is>
       </c>
       <c r="J21" s="10" t="inlineStr">
@@ -2313,7 +1704,7 @@
       <c r="K21" s="10" t="n"/>
       <c r="L21" s="10" t="n"/>
     </row>
-    <row r="22" ht="15.6" customHeight="1" s="3">
+    <row r="22" ht="15.5" customHeight="1" s="3">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="10" t="n"/>
@@ -2327,7 +1718,7 @@
       <c r="K22" s="10" t="n"/>
       <c r="L22" s="10" t="n"/>
     </row>
-    <row r="23" ht="15.6" customHeight="1" s="3">
+    <row r="23" ht="15.5" customHeight="1" s="3">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="10" t="n"/>
@@ -2341,7 +1732,7 @@
       <c r="K23" s="10" t="n"/>
       <c r="L23" s="10" t="n"/>
     </row>
-    <row r="24" ht="15.6" customHeight="1" s="3">
+    <row r="24" ht="15.5" customHeight="1" s="3">
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="n"/>
       <c r="C24" s="10" t="n"/>
@@ -2355,7 +1746,7 @@
       <c r="K24" s="10" t="n"/>
       <c r="L24" s="10" t="n"/>
     </row>
-    <row r="25" ht="15.6" customHeight="1" s="3">
+    <row r="25" ht="15.5" customHeight="1" s="3">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
       <c r="C25" s="10" t="n"/>
@@ -2369,7 +1760,7 @@
       <c r="K25" s="10" t="n"/>
       <c r="L25" s="10" t="n"/>
     </row>
-    <row r="26" ht="15.6" customHeight="1" s="3">
+    <row r="26" ht="15.5" customHeight="1" s="3">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
       <c r="C26" s="10" t="n"/>
@@ -2401,22 +1792,22 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="13.2222222222222" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.8888888888889" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.4444444444444" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.2222222222222" customWidth="1" style="3" min="4" max="4"/>
-    <col width="11.4444444444444" customWidth="1" style="3" min="5" max="5"/>
-    <col width="13.1111111111111" customWidth="1" style="3" min="6" max="6"/>
-    <col width="11.6666666666667" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.444444444444439" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.6666666666667" customWidth="1" style="3" min="9" max="9"/>
-    <col width="7.77777777777778" customWidth="1" style="3" min="10" max="10"/>
+    <col width="13.1640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.83203125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.5" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.1640625" customWidth="1" style="3" min="4" max="4"/>
+    <col width="11.5" customWidth="1" style="3" min="5" max="5"/>
+    <col width="13.1640625" customWidth="1" style="3" min="6" max="6"/>
+    <col width="11.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="9.5" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.6640625" customWidth="1" style="3" min="9" max="9"/>
+    <col width="7.83203125" customWidth="1" style="3" min="10" max="10"/>
     <col width="12" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.15" customFormat="1" customHeight="1" s="1">
+    <row r="1" ht="21.25" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CaseNum</t>
@@ -2473,7 +1864,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
+    <row r="2" ht="93.5" customFormat="1" customHeight="1" s="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +1914,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="124.8" customFormat="1" customHeight="1" s="2">
+    <row r="3" ht="124.75" customFormat="1" customHeight="1" s="2">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -2595,7 +1986,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CloudWork/TestData/CloudWork_TestCase.xlsx
+++ b/CloudWork/TestData/CloudWork_TestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="27640" windowHeight="13560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27648" windowHeight="13560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -29,7 +29,6 @@
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="14"/>
@@ -37,33 +36,167 @@
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <family val="2"/>
       <color rgb="FF333333"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -72,7 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7999816888943144"/>
+        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,8 +221,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -112,9 +431,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -157,8 +718,56 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -513,7 +1122,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -526,27 +1134,28 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="6.1640625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.83203125" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.5" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.1640625" customWidth="1" style="3" min="4" max="4"/>
-    <col width="32.6640625" customWidth="1" style="3" min="5" max="5"/>
+    <col width="6.11111111111111" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.8888888888889" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.4444444444444" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.2222222222222" customWidth="1" style="3" min="4" max="4"/>
+    <col width="32.6666666666667" customWidth="1" style="3" min="5" max="5"/>
     <col width="32" customWidth="1" style="3" min="6" max="6"/>
-    <col width="71.1640625" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.5" customWidth="1" style="3" min="8" max="8"/>
-    <col width="41.1640625" customWidth="1" style="3" min="9" max="9"/>
-    <col width="18.1640625" customWidth="1" style="3" min="10" max="10"/>
-    <col width="16.1640625" customWidth="1" style="3" min="11" max="11"/>
-    <col width="27.6640625" customWidth="1" style="3" min="12" max="12"/>
+    <col width="71.2222222222222" customWidth="1" style="3" min="7" max="7"/>
+    <col width="9.444444444444439" customWidth="1" style="3" min="8" max="8"/>
+    <col width="41.2222222222222" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.1111111111111" customWidth="1" style="3" min="10" max="10"/>
+    <col width="16.2222222222222" customWidth="1" style="3" min="11" max="11"/>
+    <col width="27.6666666666667" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.25" customFormat="1" customHeight="1" s="1">
+    <row r="1" ht="21.15" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CaseNum</t>
@@ -608,13 +1217,13 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="63.25" customFormat="1" customHeight="1" s="2">
+    <row r="2" ht="63.15" customFormat="1" customHeight="1" s="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -663,13 +1272,13 @@
       </c>
       <c r="M2" s="0" t="n"/>
     </row>
-    <row r="3" ht="47.5" customFormat="1" customHeight="1" s="2">
+    <row r="3" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_2</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -713,13 +1322,13 @@
       <c r="K3" s="4" t="n"/>
       <c r="M3" s="0" t="n"/>
     </row>
-    <row r="4" ht="47.5" customFormat="1" customHeight="1" s="2">
+    <row r="4" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_3</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -754,7 +1363,7 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123966715854848, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124246612246529, 'success': True}</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -765,13 +1374,13 @@
       <c r="K4" s="4" t="n"/>
       <c r="M4" s="0" t="n"/>
     </row>
-    <row r="5" ht="46.75" customFormat="1" customHeight="1" s="2">
+    <row r="5" ht="46.8" customFormat="1" customHeight="1" s="2">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_4</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -825,13 +1434,13 @@
       <c r="K5" s="4" t="n"/>
       <c r="M5" s="0" t="n"/>
     </row>
-    <row r="6" ht="46.75" customFormat="1" customHeight="1" s="2">
+    <row r="6" ht="46.8" customFormat="1" customHeight="1" s="2">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_5</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -885,13 +1494,13 @@
       <c r="K6" s="4" t="n"/>
       <c r="M6" s="0" t="n"/>
     </row>
-    <row r="7" ht="46.75" customFormat="1" customHeight="1" s="2">
+    <row r="7" ht="46.8" customFormat="1" customHeight="1" s="2">
       <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_6</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -926,7 +1535,7 @@
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123966715854849, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124246614343680, 'success': True}</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -937,13 +1546,13 @@
       <c r="K7" s="4" t="n"/>
       <c r="M7" s="0" t="n"/>
     </row>
-    <row r="8" ht="63.25" customFormat="1" customHeight="1" s="2">
+    <row r="8" ht="63.15" customFormat="1" customHeight="1" s="2">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_7</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -996,13 +1605,13 @@
       </c>
       <c r="K8" s="4" t="n"/>
     </row>
-    <row r="9" ht="46.75" customFormat="1" customHeight="1" s="2">
+    <row r="9" ht="46.8" customFormat="1" customHeight="1" s="2">
       <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_8</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -1058,13 +1667,13 @@
       <c r="K9" s="4" t="n"/>
       <c r="M9" s="0" t="n"/>
     </row>
-    <row r="10" ht="46.75" customFormat="1" customHeight="1" s="2">
+    <row r="10" ht="46.8" customFormat="1" customHeight="1" s="2">
       <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>task_9</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -1124,7 +1733,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_1</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1167,13 +1776,13 @@
       </c>
       <c r="K11" s="4" t="n"/>
     </row>
-    <row r="12" ht="47.5" customFormat="1" customHeight="1" s="2">
+    <row r="12" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_2</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1216,13 +1825,13 @@
       </c>
       <c r="K12" s="4" t="n"/>
     </row>
-    <row r="13" ht="47.5" customFormat="1" customHeight="1" s="2">
+    <row r="13" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A13" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_3</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1257,7 +1866,7 @@
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123966720049152, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124246616440832, 'success': True}</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1267,13 +1876,13 @@
       </c>
       <c r="K13" s="4" t="n"/>
     </row>
-    <row r="14" ht="47.5" customFormat="1" customHeight="1" s="2">
+    <row r="14" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A14" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_4</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1317,13 +1926,13 @@
       <c r="K14" s="4" t="n"/>
       <c r="M14" s="12" t="n"/>
     </row>
-    <row r="15" ht="43.25" customFormat="1" customHeight="1" s="2">
+    <row r="15" ht="43.2" customFormat="1" customHeight="1" s="2">
       <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_5</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1358,7 +1967,7 @@
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123966722146304, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124246616440833, 'success': True}</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1368,13 +1977,13 @@
       </c>
       <c r="K15" s="4" t="n"/>
     </row>
-    <row r="16" ht="62.5" customFormat="1" customHeight="1" s="2">
+    <row r="16" ht="62.4" customFormat="1" customHeight="1" s="2">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_6</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1418,13 +2027,13 @@
       <c r="K16" s="4" t="n"/>
       <c r="M16" s="12" t="n"/>
     </row>
-    <row r="17" ht="62.5" customFormat="1" customHeight="1" s="2">
+    <row r="17" ht="62.4" customFormat="1" customHeight="1" s="2">
       <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_7</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1480,7 +2089,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_8</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1534,13 +2143,13 @@
       </c>
       <c r="K18" s="4" t="n"/>
     </row>
-    <row r="19" ht="93.5" customFormat="1" customHeight="1" s="2">
+    <row r="19" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_9</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1594,13 +2203,13 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="124.75" customFormat="1" customHeight="1" s="2">
+    <row r="20" ht="124.8" customFormat="1" customHeight="1" s="2">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_10</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1655,7 +2264,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project_11</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1693,7 +2302,7 @@
       </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 123966724243456, 'success': True}</t>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124246618537984, 'success': True}</t>
         </is>
       </c>
       <c r="J21" s="10" t="inlineStr">
@@ -1704,7 +2313,7 @@
       <c r="K21" s="10" t="n"/>
       <c r="L21" s="10" t="n"/>
     </row>
-    <row r="22" ht="15.5" customHeight="1" s="3">
+    <row r="22" ht="15.6" customHeight="1" s="3">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="10" t="n"/>
@@ -1718,7 +2327,7 @@
       <c r="K22" s="10" t="n"/>
       <c r="L22" s="10" t="n"/>
     </row>
-    <row r="23" ht="15.5" customHeight="1" s="3">
+    <row r="23" ht="15.6" customHeight="1" s="3">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="10" t="n"/>
@@ -1732,7 +2341,7 @@
       <c r="K23" s="10" t="n"/>
       <c r="L23" s="10" t="n"/>
     </row>
-    <row r="24" ht="15.5" customHeight="1" s="3">
+    <row r="24" ht="15.6" customHeight="1" s="3">
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="n"/>
       <c r="C24" s="10" t="n"/>
@@ -1746,7 +2355,7 @@
       <c r="K24" s="10" t="n"/>
       <c r="L24" s="10" t="n"/>
     </row>
-    <row r="25" ht="15.5" customHeight="1" s="3">
+    <row r="25" ht="15.6" customHeight="1" s="3">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
       <c r="C25" s="10" t="n"/>
@@ -1760,7 +2369,7 @@
       <c r="K25" s="10" t="n"/>
       <c r="L25" s="10" t="n"/>
     </row>
-    <row r="26" ht="15.5" customHeight="1" s="3">
+    <row r="26" ht="15.6" customHeight="1" s="3">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
       <c r="C26" s="10" t="n"/>
@@ -1792,22 +2401,22 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col width="13.1640625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.83203125" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.5" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.1640625" customWidth="1" style="3" min="4" max="4"/>
-    <col width="11.5" customWidth="1" style="3" min="5" max="5"/>
-    <col width="13.1640625" customWidth="1" style="3" min="6" max="6"/>
-    <col width="11.6640625" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.5" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.6640625" customWidth="1" style="3" min="9" max="9"/>
-    <col width="7.83203125" customWidth="1" style="3" min="10" max="10"/>
+    <col width="13.2222222222222" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.8888888888889" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.4444444444444" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.2222222222222" customWidth="1" style="3" min="4" max="4"/>
+    <col width="11.4444444444444" customWidth="1" style="3" min="5" max="5"/>
+    <col width="13.1111111111111" customWidth="1" style="3" min="6" max="6"/>
+    <col width="11.6666666666667" customWidth="1" style="3" min="7" max="7"/>
+    <col width="9.444444444444439" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.6666666666667" customWidth="1" style="3" min="9" max="9"/>
+    <col width="7.77777777777778" customWidth="1" style="3" min="10" max="10"/>
     <col width="12" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.25" customFormat="1" customHeight="1" s="1">
+    <row r="1" ht="21.15" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CaseNum</t>
@@ -1864,7 +2473,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="93.5" customFormat="1" customHeight="1" s="2">
+    <row r="2" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -1914,7 +2523,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="124.75" customFormat="1" customHeight="1" s="2">
+    <row r="3" ht="124.8" customFormat="1" customHeight="1" s="2">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -1986,7 +2595,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CloudWork/TestData/CloudWork_TestCase.xlsx
+++ b/CloudWork/TestData/CloudWork_TestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27648" windowHeight="13560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="11208" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,6 +54,74 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -68,38 +136,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -108,13 +161,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -135,21 +181,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -158,41 +189,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +447,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,8 +488,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,7 +516,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,23 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -549,137 +549,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1133,10 +1136,10 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1241,7 +1244,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1254,18 +1257,18 @@
       <c r="H2" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="11" t="inlineStr">
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="12" t="inlineStr">
         <is>
           <t>CaseNum must start from number 1(int)</t>
         </is>
@@ -1296,7 +1299,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1309,17 +1312,17 @@
       <c r="H3" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n"/>
+      <c r="K3" s="9" t="n"/>
       <c r="M3" s="0" t="n"/>
     </row>
     <row r="4" ht="47.55" customFormat="1" customHeight="1" s="2">
@@ -1346,7 +1349,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1361,17 +1364,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124246612246529, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124597631451136, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n"/>
+      <c r="K4" s="9" t="n"/>
       <c r="M4" s="0" t="n"/>
     </row>
     <row r="5" ht="46.8" customFormat="1" customHeight="1" s="2">
@@ -1393,12 +1396,12 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
@@ -1421,17 +1424,17 @@
           <t>9999</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败,开始时间不能为空', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n"/>
+      <c r="K5" s="9" t="n"/>
       <c r="M5" s="0" t="n"/>
     </row>
     <row r="6" ht="46.8" customFormat="1" customHeight="1" s="2">
@@ -1453,12 +1456,12 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
@@ -1481,17 +1484,17 @@
           <t>9999</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败,截至时间不能为空', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n"/>
+      <c r="K6" s="9" t="n"/>
       <c r="M6" s="0" t="n"/>
     </row>
     <row r="7" ht="46.8" customFormat="1" customHeight="1" s="2">
@@ -1518,7 +1521,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1533,17 +1536,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124246614343680, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124597631451137, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J7" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n"/>
+      <c r="K7" s="9" t="n"/>
       <c r="M7" s="0" t="n"/>
     </row>
     <row r="8" ht="63.15" customFormat="1" customHeight="1" s="2">
@@ -1570,7 +1573,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/updateForDraft</t>
         </is>
@@ -1593,17 +1596,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="I8" s="9" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n"/>
+      <c r="K8" s="9" t="n"/>
     </row>
     <row r="9" ht="46.8" customFormat="1" customHeight="1" s="2">
       <c r="A9" s="8" t="n">
@@ -1624,12 +1627,12 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
@@ -1654,17 +1657,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n"/>
+      <c r="K9" s="9" t="n"/>
       <c r="M9" s="0" t="n"/>
     </row>
     <row r="10" ht="46.8" customFormat="1" customHeight="1" s="2">
@@ -1686,12 +1689,12 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
@@ -1714,17 +1717,17 @@
       <c r="H10" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '只有草稿任务才能发布', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n"/>
+      <c r="K10" s="9" t="n"/>
       <c r="M10" s="0" t="n"/>
     </row>
     <row r="11" ht="78.75" customFormat="1" customHeight="1" s="2">
@@ -1751,7 +1754,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1764,17 +1767,17 @@
       <c r="H11" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n"/>
+      <c r="K11" s="9" t="n"/>
     </row>
     <row r="12" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A12" s="8" t="n">
@@ -1800,7 +1803,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1813,17 +1816,17 @@
       <c r="H12" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I12" s="4" t="inlineStr">
+      <c r="I12" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n"/>
+      <c r="K12" s="9" t="n"/>
     </row>
     <row r="13" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A13" s="8" t="n">
@@ -1849,7 +1852,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1864,17 +1867,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124246616440832, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124610470215681, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J13" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n"/>
+      <c r="K13" s="9" t="n"/>
     </row>
     <row r="14" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A14" s="8" t="n">
@@ -1900,7 +1903,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1913,18 +1916,18 @@
       <c r="H14" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="I14" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n"/>
-      <c r="M14" s="12" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="M14" s="13" t="n"/>
     </row>
     <row r="15" ht="43.2" customFormat="1" customHeight="1" s="2">
       <c r="A15" s="7" t="n">
@@ -1950,7 +1953,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1965,17 +1968,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124246616440833, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124610470215682, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J15" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n"/>
+      <c r="K15" s="9" t="n"/>
     </row>
     <row r="16" ht="62.4" customFormat="1" customHeight="1" s="2">
       <c r="A16" s="2" t="n">
@@ -2001,7 +2004,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
         </is>
@@ -2014,18 +2017,18 @@
       <c r="H16" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I16" s="4" t="inlineStr">
+      <c r="I16" s="9" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '姓名为LAU的用户已为该项目成员', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n"/>
-      <c r="M16" s="12" t="n"/>
+      <c r="K16" s="9" t="n"/>
+      <c r="M16" s="13" t="n"/>
     </row>
     <row r="17" ht="62.4" customFormat="1" customHeight="1" s="2">
       <c r="A17" s="7" t="n">
@@ -2051,7 +2054,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
         </is>
@@ -2066,17 +2069,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="I17" s="9" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n"/>
+      <c r="K17" s="9" t="n"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>userId为登录的用户id</t>
@@ -2107,7 +2110,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/updateForDraft</t>
         </is>
@@ -2131,17 +2134,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
+      <c r="I18" s="9" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n"/>
+      <c r="K18" s="9" t="n"/>
     </row>
     <row r="19" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
       <c r="A19" s="2" t="n">
@@ -2167,7 +2170,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete</t>
         </is>
@@ -2179,17 +2182,17 @@
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="I19" s="9" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -2227,7 +2230,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectCustomState/add</t>
         </is>
@@ -2239,17 +2242,17 @@
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
+          <t>9999</t>
+        </is>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -2267,7 +2270,7 @@
           <t>Project_11</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>项目内新建任务</t>
         </is>
@@ -2282,12 +2285,12 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="9" t="inlineStr">
         <is>
           <t>{'name': "apiauto_taskinpro",
 'projectId': 0,
@@ -2295,93 +2298,93 @@
 'templateId': ""}</t>
         </is>
       </c>
-      <c r="H21" s="9" t="inlineStr">
+      <c r="H21" s="10" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I21" s="10" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124246618537984, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J21" s="10" t="inlineStr">
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124610474409984, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J21" s="11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K21" s="10" t="n"/>
-      <c r="L21" s="10" t="n"/>
+      <c r="K21" s="11" t="n"/>
+      <c r="L21" s="11" t="n"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" s="3">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
-      <c r="C22" s="10" t="n"/>
+      <c r="C22" s="11" t="n"/>
       <c r="D22" s="2" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="10" t="n"/>
-      <c r="G22" s="10" t="n"/>
-      <c r="H22" s="10" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="10" t="n"/>
-      <c r="K22" s="10" t="n"/>
-      <c r="L22" s="10" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="11" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
+      <c r="J22" s="11" t="n"/>
+      <c r="K22" s="11" t="n"/>
+      <c r="L22" s="11" t="n"/>
     </row>
     <row r="23" ht="15.6" customHeight="1" s="3">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
-      <c r="C23" s="10" t="n"/>
+      <c r="C23" s="11" t="n"/>
       <c r="D23" s="2" t="n"/>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="10" t="n"/>
-      <c r="G23" s="10" t="n"/>
-      <c r="H23" s="10" t="n"/>
-      <c r="I23" s="10" t="n"/>
-      <c r="J23" s="10" t="n"/>
-      <c r="K23" s="10" t="n"/>
-      <c r="L23" s="10" t="n"/>
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="11" t="n"/>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="11" t="n"/>
+      <c r="J23" s="11" t="n"/>
+      <c r="K23" s="11" t="n"/>
+      <c r="L23" s="11" t="n"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" s="3">
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="n"/>
-      <c r="C24" s="10" t="n"/>
+      <c r="C24" s="11" t="n"/>
       <c r="D24" s="2" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="10" t="n"/>
-      <c r="G24" s="10" t="n"/>
-      <c r="H24" s="10" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="10" t="n"/>
-      <c r="K24" s="10" t="n"/>
-      <c r="L24" s="10" t="n"/>
+      <c r="E24" s="11" t="n"/>
+      <c r="F24" s="11" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
+      <c r="J24" s="11" t="n"/>
+      <c r="K24" s="11" t="n"/>
+      <c r="L24" s="11" t="n"/>
     </row>
     <row r="25" ht="15.6" customHeight="1" s="3">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
-      <c r="C25" s="10" t="n"/>
-      <c r="D25" s="10" t="n"/>
-      <c r="E25" s="10" t="n"/>
-      <c r="F25" s="10" t="n"/>
-      <c r="G25" s="10" t="n"/>
-      <c r="H25" s="10" t="n"/>
-      <c r="I25" s="10" t="n"/>
-      <c r="J25" s="10" t="n"/>
-      <c r="K25" s="10" t="n"/>
-      <c r="L25" s="10" t="n"/>
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="11" t="n"/>
+      <c r="E25" s="11" t="n"/>
+      <c r="F25" s="11" t="n"/>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="11" t="n"/>
+      <c r="J25" s="11" t="n"/>
+      <c r="K25" s="11" t="n"/>
+      <c r="L25" s="11" t="n"/>
     </row>
     <row r="26" ht="15.6" customHeight="1" s="3">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
-      <c r="C26" s="10" t="n"/>
-      <c r="D26" s="10" t="n"/>
-      <c r="E26" s="10" t="n"/>
-      <c r="F26" s="10" t="n"/>
-      <c r="G26" s="10" t="n"/>
-      <c r="H26" s="10" t="n"/>
-      <c r="I26" s="10" t="n"/>
-      <c r="J26" s="10" t="n"/>
-      <c r="K26" s="10" t="n"/>
-      <c r="L26" s="10" t="n"/>
+      <c r="C26" s="11" t="n"/>
+      <c r="D26" s="11" t="n"/>
+      <c r="E26" s="11" t="n"/>
+      <c r="F26" s="11" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="11" t="n"/>
+      <c r="J26" s="11" t="n"/>
+      <c r="K26" s="11" t="n"/>
+      <c r="L26" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,7 +2401,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -2497,7 +2500,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete</t>
         </is>
@@ -2512,7 +2515,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="9" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
@@ -2524,59 +2527,12 @@
       </c>
     </row>
     <row r="3" ht="124.8" customFormat="1" customHeight="1" s="2">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Project_02</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>添加项目状态</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>https://testscp-ms.xgjk.info/scp-work/projectCustomState/add</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{'projectId':122986741891074,'stateName':'auto','sort':2,'projectState':'SUBMIT'}</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>join</t>
-        </is>
-      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="9" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
+      <c r="A4" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CloudWork/TestData/CloudWork_TestCase.xlsx
+++ b/CloudWork/TestData/CloudWork_TestCase.xlsx
@@ -54,17 +54,54 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,14 +114,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -92,16 +138,8 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,60 +160,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -189,10 +174,25 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,19 +223,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,19 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,66 +391,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,67 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -447,26 +471,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,26 +499,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,17 +509,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -549,137 +549,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,9 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1139,7 +1136,7 @@
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1244,7 +1241,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1257,18 +1254,18 @@
       <c r="H2" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I2" s="9" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J2" s="9" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K2" s="9" t="n"/>
-      <c r="L2" s="12" t="inlineStr">
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>CaseNum must start from number 1(int)</t>
         </is>
@@ -1299,7 +1296,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1312,17 +1309,17 @@
       <c r="H3" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I3" s="9" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J3" s="9" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K3" s="9" t="n"/>
+      <c r="K3" s="4" t="n"/>
       <c r="M3" s="0" t="n"/>
     </row>
     <row r="4" ht="47.55" customFormat="1" customHeight="1" s="2">
@@ -1349,7 +1346,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1364,17 +1361,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124597631451136, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J4" s="9" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124957999759361, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K4" s="9" t="n"/>
+      <c r="K4" s="4" t="n"/>
       <c r="M4" s="0" t="n"/>
     </row>
     <row r="5" ht="46.8" customFormat="1" customHeight="1" s="2">
@@ -1396,12 +1393,12 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
@@ -1424,17 +1421,17 @@
           <t>9999</t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败,开始时间不能为空', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J5" s="9" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K5" s="9" t="n"/>
+      <c r="K5" s="4" t="n"/>
       <c r="M5" s="0" t="n"/>
     </row>
     <row r="6" ht="46.8" customFormat="1" customHeight="1" s="2">
@@ -1456,12 +1453,12 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
@@ -1484,17 +1481,17 @@
           <t>9999</t>
         </is>
       </c>
-      <c r="I6" s="9" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败,截至时间不能为空', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J6" s="9" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K6" s="9" t="n"/>
+      <c r="K6" s="4" t="n"/>
       <c r="M6" s="0" t="n"/>
     </row>
     <row r="7" ht="46.8" customFormat="1" customHeight="1" s="2">
@@ -1521,7 +1518,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
@@ -1536,17 +1533,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I7" s="9" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124597631451137, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J7" s="9" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124958001856512, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K7" s="9" t="n"/>
+      <c r="K7" s="4" t="n"/>
       <c r="M7" s="0" t="n"/>
     </row>
     <row r="8" ht="63.15" customFormat="1" customHeight="1" s="2">
@@ -1573,7 +1570,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/updateForDraft</t>
         </is>
@@ -1596,17 +1593,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I8" s="9" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J8" s="9" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K8" s="9" t="n"/>
+      <c r="K8" s="4" t="n"/>
     </row>
     <row r="9" ht="46.8" customFormat="1" customHeight="1" s="2">
       <c r="A9" s="8" t="n">
@@ -1627,12 +1624,12 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
@@ -1657,17 +1654,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J9" s="9" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K9" s="9" t="n"/>
+      <c r="K9" s="4" t="n"/>
       <c r="M9" s="0" t="n"/>
     </row>
     <row r="10" ht="46.8" customFormat="1" customHeight="1" s="2">
@@ -1689,12 +1686,12 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/publish</t>
         </is>
@@ -1717,17 +1714,17 @@
       <c r="H10" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I10" s="9" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '只有草稿任务才能发布', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J10" s="9" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K10" s="9" t="n"/>
+      <c r="K10" s="4" t="n"/>
       <c r="M10" s="0" t="n"/>
     </row>
     <row r="11" ht="78.75" customFormat="1" customHeight="1" s="2">
@@ -1754,7 +1751,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1767,17 +1764,17 @@
       <c r="H11" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I11" s="9" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '请求失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J11" s="9" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K11" s="9" t="n"/>
+      <c r="K11" s="4" t="n"/>
     </row>
     <row r="12" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A12" s="8" t="n">
@@ -1803,7 +1800,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1816,17 +1813,17 @@
       <c r="H12" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I12" s="9" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J12" s="9" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K12" s="9" t="n"/>
+      <c r="K12" s="4" t="n"/>
     </row>
     <row r="13" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A13" s="8" t="n">
@@ -1852,7 +1849,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1867,17 +1864,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124610470215681, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J13" s="9" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124958003953665, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K13" s="9" t="n"/>
+      <c r="K13" s="4" t="n"/>
     </row>
     <row r="14" ht="47.55" customFormat="1" customHeight="1" s="2">
       <c r="A14" s="8" t="n">
@@ -1903,7 +1900,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1916,18 +1913,18 @@
       <c r="H14" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I14" s="9" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '参数校验失败', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J14" s="9" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K14" s="9" t="n"/>
-      <c r="M14" s="13" t="n"/>
+      <c r="K14" s="4" t="n"/>
+      <c r="M14" s="12" t="n"/>
     </row>
     <row r="15" ht="43.2" customFormat="1" customHeight="1" s="2">
       <c r="A15" s="7" t="n">
@@ -1953,7 +1950,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F15" s="9" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/add</t>
         </is>
@@ -1968,17 +1965,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124610470215682, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J15" s="9" t="inlineStr">
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124958003953666, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K15" s="9" t="n"/>
+      <c r="K15" s="4" t="n"/>
     </row>
     <row r="16" ht="62.4" customFormat="1" customHeight="1" s="2">
       <c r="A16" s="2" t="n">
@@ -2004,7 +2001,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
         </is>
@@ -2017,18 +2014,18 @@
       <c r="H16" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="I16" s="9" t="inlineStr">
+      <c r="I16" s="4" t="inlineStr">
         <is>
           <t>{'code': '9999', 'message': '姓名为LAU的用户已为该项目成员', 'value': None, 'success': False}</t>
         </is>
       </c>
-      <c r="J16" s="9" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K16" s="9" t="n"/>
-      <c r="M16" s="13" t="n"/>
+      <c r="K16" s="4" t="n"/>
+      <c r="M16" s="12" t="n"/>
     </row>
     <row r="17" ht="62.4" customFormat="1" customHeight="1" s="2">
       <c r="A17" s="7" t="n">
@@ -2054,7 +2051,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F17" s="9" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/add</t>
         </is>
@@ -2069,17 +2066,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J17" s="9" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K17" s="9" t="n"/>
+      <c r="K17" s="4" t="n"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>userId为登录的用户id</t>
@@ -2110,7 +2107,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F18" s="9" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/project/updateForDraft</t>
         </is>
@@ -2134,17 +2131,17 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I18" s="9" t="inlineStr">
+      <c r="I18" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J18" s="9" t="inlineStr">
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K18" s="9" t="n"/>
+      <c r="K18" s="4" t="n"/>
     </row>
     <row r="19" ht="93.59999999999999" customFormat="1" customHeight="1" s="2">
       <c r="A19" s="2" t="n">
@@ -2170,7 +2167,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F19" s="9" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete</t>
         </is>
@@ -2182,17 +2179,17 @@
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="I19" s="9" t="inlineStr">
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J19" s="9" t="inlineStr">
-        <is>
-          <t>Failed</t>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -2230,7 +2227,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F20" s="9" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectCustomState/add</t>
         </is>
@@ -2242,17 +2239,17 @@
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
       </c>
-      <c r="J20" s="9" t="inlineStr">
-        <is>
-          <t>Failed</t>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -2270,7 +2267,7 @@
           <t>Project_11</t>
         </is>
       </c>
-      <c r="C21" s="9" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>项目内新建任务</t>
         </is>
@@ -2285,12 +2282,12 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F21" s="9" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/task/add</t>
         </is>
       </c>
-      <c r="G21" s="9" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>{'name': "apiauto_taskinpro",
 'projectId': 0,
@@ -2298,93 +2295,93 @@
 'templateId': ""}</t>
         </is>
       </c>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="H21" s="9" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="I21" s="11" t="inlineStr">
-        <is>
-          <t>{'code': '0000', 'message': '操作成功', 'value': 124610474409984, 'success': True}</t>
-        </is>
-      </c>
-      <c r="J21" s="11" t="inlineStr">
+      <c r="I21" s="10" t="inlineStr">
+        <is>
+          <t>{'code': '0000', 'message': '操作成功', 'value': 124958008147968, 'success': True}</t>
+        </is>
+      </c>
+      <c r="J21" s="10" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K21" s="11" t="n"/>
-      <c r="L21" s="11" t="n"/>
+      <c r="K21" s="10" t="n"/>
+      <c r="L21" s="10" t="n"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" s="3">
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
-      <c r="C22" s="11" t="n"/>
+      <c r="C22" s="10" t="n"/>
       <c r="D22" s="2" t="n"/>
-      <c r="E22" s="11" t="n"/>
-      <c r="F22" s="11" t="n"/>
-      <c r="G22" s="11" t="n"/>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="11" t="n"/>
-      <c r="J22" s="11" t="n"/>
-      <c r="K22" s="11" t="n"/>
-      <c r="L22" s="11" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="10" t="n"/>
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="10" t="n"/>
+      <c r="K22" s="10" t="n"/>
+      <c r="L22" s="10" t="n"/>
     </row>
     <row r="23" ht="15.6" customHeight="1" s="3">
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
-      <c r="C23" s="11" t="n"/>
+      <c r="C23" s="10" t="n"/>
       <c r="D23" s="2" t="n"/>
-      <c r="E23" s="11" t="n"/>
-      <c r="F23" s="11" t="n"/>
-      <c r="G23" s="11" t="n"/>
-      <c r="H23" s="11" t="n"/>
-      <c r="I23" s="11" t="n"/>
-      <c r="J23" s="11" t="n"/>
-      <c r="K23" s="11" t="n"/>
-      <c r="L23" s="11" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="10" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="10" t="n"/>
+      <c r="K23" s="10" t="n"/>
+      <c r="L23" s="10" t="n"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" s="3">
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="n"/>
-      <c r="C24" s="11" t="n"/>
+      <c r="C24" s="10" t="n"/>
       <c r="D24" s="2" t="n"/>
-      <c r="E24" s="11" t="n"/>
-      <c r="F24" s="11" t="n"/>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="11" t="n"/>
-      <c r="J24" s="11" t="n"/>
-      <c r="K24" s="11" t="n"/>
-      <c r="L24" s="11" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="10" t="n"/>
+      <c r="G24" s="10" t="n"/>
+      <c r="H24" s="10" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="10" t="n"/>
+      <c r="K24" s="10" t="n"/>
+      <c r="L24" s="10" t="n"/>
     </row>
     <row r="25" ht="15.6" customHeight="1" s="3">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
-      <c r="C25" s="11" t="n"/>
-      <c r="D25" s="11" t="n"/>
-      <c r="E25" s="11" t="n"/>
-      <c r="F25" s="11" t="n"/>
-      <c r="G25" s="11" t="n"/>
-      <c r="H25" s="11" t="n"/>
-      <c r="I25" s="11" t="n"/>
-      <c r="J25" s="11" t="n"/>
-      <c r="K25" s="11" t="n"/>
-      <c r="L25" s="11" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="10" t="n"/>
+      <c r="K25" s="10" t="n"/>
+      <c r="L25" s="10" t="n"/>
     </row>
     <row r="26" ht="15.6" customHeight="1" s="3">
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
-      <c r="C26" s="11" t="n"/>
-      <c r="D26" s="11" t="n"/>
-      <c r="E26" s="11" t="n"/>
-      <c r="F26" s="11" t="n"/>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11" t="n"/>
-      <c r="I26" s="11" t="n"/>
-      <c r="J26" s="11" t="n"/>
-      <c r="K26" s="11" t="n"/>
-      <c r="L26" s="11" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="10" t="n"/>
+      <c r="G26" s="10" t="n"/>
+      <c r="H26" s="10" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="10" t="n"/>
+      <c r="K26" s="10" t="n"/>
+      <c r="L26" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2500,7 +2497,7 @@
           <t>{'Content-Type': 'application/json;charset=UTF-8'}</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>https://testscp-ms.xgjk.info/scp-work/projectUser/delete</t>
         </is>
@@ -2515,7 +2512,7 @@
           <t>0000</t>
         </is>
       </c>
-      <c r="I2" s="9" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>{'code': '0000', 'message': '操作成功', 'value': None, 'success': True}</t>
         </is>
@@ -2527,9 +2524,9 @@
       </c>
     </row>
     <row r="3" ht="124.8" customFormat="1" customHeight="1" s="2">
-      <c r="F3" s="9" t="n"/>
+      <c r="F3" s="4" t="n"/>
       <c r="H3" s="5" t="n"/>
-      <c r="I3" s="9" t="n"/>
+      <c r="I3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n"/>
